--- a/data/trans_orig/AIRE_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DA2E518-E78B-4D85-9CE2-6C5EB157FB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D42E8439-DCF1-47C4-979A-4E39D3F025F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10319AD0-1099-4FDA-862F-522B994A1A23}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AFAE0FEB-7E48-4DBC-924A-3AF3311F59CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="284">
   <si>
     <t>Población según lo que estarían dispuestos a pagar para que en su municipio o lugar de residencia se redujera la contaminación del aire en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
@@ -128,7 +128,7 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>15,62%</t>
+    <t>14,37%</t>
   </si>
   <si>
     <t>5,16%</t>
@@ -137,7 +137,7 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>7,18%</t>
+    <t>6,61%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -149,679 +149,685 @@
     <t>2,81%</t>
   </si>
   <si>
-    <t>13,2%</t>
+    <t>12,08%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>6,84%</t>
+    <t>6,2%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>14,76%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>7,55%</t>
+    <t>7,12%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>13,6%</t>
+    <t>15,01%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>6,68%</t>
+    <t>5,78%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>24,17%</t>
+    <t>23,3%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
+    <t>7,45%</t>
+  </si>
+  <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>7,8%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>6,5%</t>
   </si>
   <si>
     <t>4,89%</t>
@@ -830,55 +836,55 @@
     <t>11,45%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>12,77%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>74,03%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1293,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F7A047-803A-4E3F-85CE-0DA88EAD86CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BAE18B-E699-4BA2-B0EA-BE07FF3CC77D}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2436,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -2445,13 +2451,13 @@
         <v>2421</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,7 +2478,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2481,13 +2487,13 @@
         <v>2586</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2496,13 +2502,13 @@
         <v>3464</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2523,13 @@
         <v>26900</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -2532,13 +2538,13 @@
         <v>22229</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -2547,13 +2553,13 @@
         <v>49129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2615,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2621,13 +2627,13 @@
         <v>2130</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2828,10 +2834,10 @@
         <v>95</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2855,10 +2861,10 @@
         <v>3347</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>99</v>
@@ -2909,10 +2915,10 @@
         <v>104</v>
       </c>
       <c r="P33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,10 +2933,10 @@
         <v>8862</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>108</v>
@@ -2996,7 +3002,7 @@
         <v>118</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>119</v>
@@ -3256,7 +3262,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -3265,13 +3271,13 @@
         <v>2773</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3292,13 @@
         <v>4382</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3301,13 +3307,13 @@
         <v>734</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -3316,13 +3322,13 @@
         <v>5116</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3496,13 @@
         <v>1877</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -3505,13 +3511,13 @@
         <v>798</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -3523,10 +3529,10 @@
         <v>118</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3547,13 @@
         <v>2045</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -3556,13 +3562,13 @@
         <v>3801</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M46" s="7">
         <v>8</v>
@@ -3571,13 +3577,13 @@
         <v>5847</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,13 +3598,13 @@
         <v>1036</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -3607,13 +3613,13 @@
         <v>2165</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -3622,13 +3628,13 @@
         <v>3201</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3649,13 @@
         <v>3418</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H48" s="7">
         <v>6</v>
@@ -3658,13 +3664,13 @@
         <v>4157</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M48" s="7">
         <v>11</v>
@@ -3673,13 +3679,13 @@
         <v>7575</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3700,13 @@
         <v>13653</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H49" s="7">
         <v>29</v>
@@ -3709,13 +3715,13 @@
         <v>18964</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M49" s="7">
         <v>52</v>
@@ -3724,13 +3730,13 @@
         <v>32617</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3751,13 @@
         <v>61250</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H50" s="7">
         <v>83</v>
@@ -3760,13 +3766,13 @@
         <v>53052</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M50" s="7">
         <v>163</v>
@@ -3775,13 +3781,13 @@
         <v>114301</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,10 +3858,10 @@
         <v>170</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H52" s="7">
         <v>3</v>
@@ -3864,13 +3870,13 @@
         <v>1624</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>220</v>
+        <v>98</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="M52" s="7">
         <v>9</v>
@@ -3882,10 +3888,10 @@
         <v>164</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3906,13 @@
         <v>7587</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H53" s="7">
         <v>3</v>
@@ -3918,10 +3924,10 @@
         <v>81</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M53" s="7">
         <v>13</v>
@@ -3933,10 +3939,10 @@
         <v>42</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -3972,7 +3978,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -3981,13 +3987,13 @@
         <v>1816</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4008,13 @@
         <v>380</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -4017,13 +4023,13 @@
         <v>1242</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -4035,10 +4041,10 @@
         <v>174</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4059,13 @@
         <v>4235</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="H56" s="7">
         <v>1</v>
@@ -4068,13 +4074,13 @@
         <v>418</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="M56" s="7">
         <v>6</v>
@@ -4083,13 +4089,13 @@
         <v>4653</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4110,13 @@
         <v>1877</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="H57" s="7">
         <v>4</v>
@@ -4119,13 +4125,13 @@
         <v>2993</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="M57" s="7">
         <v>6</v>
@@ -4134,13 +4140,13 @@
         <v>4869</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,10 +4164,10 @@
         <v>29</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H58" s="7">
         <v>14</v>
@@ -4170,13 +4176,13 @@
         <v>11549</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M58" s="7">
         <v>28</v>
@@ -4185,13 +4191,13 @@
         <v>22456</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4212,13 @@
         <v>3968</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H59" s="7">
         <v>10</v>
@@ -4221,13 +4227,13 @@
         <v>5975</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M59" s="7">
         <v>16</v>
@@ -4239,10 +4245,10 @@
         <v>170</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4263,13 @@
         <v>19850</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H60" s="7">
         <v>21</v>
@@ -4272,13 +4278,13 @@
         <v>13763</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M60" s="7">
         <v>50</v>
@@ -4287,13 +4293,13 @@
         <v>33612</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4314,13 @@
         <v>42485</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H61" s="7">
         <v>64</v>
@@ -4323,13 +4329,13 @@
         <v>40370</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M61" s="7">
         <v>128</v>
@@ -4338,13 +4344,13 @@
         <v>82855</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4365,13 @@
         <v>272603</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H62" s="7">
         <v>346</v>
@@ -4374,13 +4380,13 @@
         <v>236078</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M62" s="7">
         <v>718</v>
@@ -4389,13 +4395,13 @@
         <v>508681</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,7 +4457,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
